--- a/medicine/Enfance/Alice_Geer_Kelsey/Alice_Geer_Kelsey.xlsx
+++ b/medicine/Enfance/Alice_Geer_Kelsey/Alice_Geer_Kelsey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Geer Kelsey, née le 21 septembre 1896 à Danvers, Massachusetts, et morte le 27 septembre 1982 à Ithaca, New York, est une auteure américaine de livres pour enfants. En 1943, elle publie Once the Hodja, recueil de contes folkloriques turcs illustré par Frank Dobias.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Danvers, Massachusetts, en 1896[1], Alice Geer Kelsey grandit à Lewiston au Maine et à West Hartford au Connecticut. Diplômée en histoire au Mount Holyoke College en 1918, elle épouse Lincoln David Kelsey en 1919, adoptant alors son nom.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Danvers, Massachusetts, en 1896, Alice Geer Kelsey grandit à Lewiston au Maine et à West Hartford au Connecticut. Diplômée en histoire au Mount Holyoke College en 1918, elle épouse Lincoln David Kelsey en 1919, adoptant alors son nom.
 Peu après, elle quitte les États-Unis pour le Moyen-Orient où elle participe à l'aide humanitaire aux victimes de la Première Guerre mondiale. C'est auprès des orphelins de Merzifoun, en Turquie, qu'elle collecte les histoires qu'elle inclut par la suite à son recueil Once the Hodja.
 </t>
         </is>
